--- a/Galinhas/Galinhas 2025 novo.xlsx
+++ b/Galinhas/Galinhas 2025 novo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Betinho\Desktop\wwwHumbertoEscultor\util\Contas\Bichos de Casa\Galinhas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BichosDeCasa\Galinhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868EEA8B-37E2-4E4C-BB44-B46F3538828C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D66DF6D-B8D3-4EC9-90A9-10A731D00C1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="3840" activeTab="2" xr2:uid="{0FF26368-0124-41AC-ABBE-7DCA2B31386A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="3840" activeTab="1" xr2:uid="{0FF26368-0124-41AC-ABBE-7DCA2B31386A}"/>
   </bookViews>
   <sheets>
     <sheet name="galinhas" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="80">
   <si>
     <t>HOJE</t>
   </si>
@@ -977,8 +977,8 @@
   <dimension ref="A1:J58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A45" sqref="A45:XFD45"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A51" sqref="A51:XFD51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="C1" s="40">
         <f ca="1">TODAY()</f>
-        <v>46015</v>
+        <v>46029</v>
       </c>
       <c r="D1" s="41">
         <f>SUM(I32:I43)</f>
@@ -1279,11 +1279,11 @@
       </c>
       <c r="E11" s="16">
         <f ca="1">TODAY()</f>
-        <v>46015</v>
+        <v>46029</v>
       </c>
       <c r="F11" s="15">
         <f t="shared" ref="F11:F18" ca="1" si="3">E11-D11</f>
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H11" s="14">
         <f t="shared" ca="1" si="1"/>
@@ -1386,18 +1386,18 @@
       </c>
       <c r="E15" s="18">
         <f ca="1">TODAY()</f>
-        <v>46015</v>
+        <v>46029</v>
       </c>
       <c r="F15" s="17">
         <f t="shared" ca="1" si="3"/>
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="G15" s="17">
         <v>14</v>
       </c>
       <c r="H15" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>6.7307692307692304E-2</v>
+        <v>6.3063063063063057E-2</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -1497,18 +1497,18 @@
       </c>
       <c r="E19" s="16">
         <f ca="1">TODAY()</f>
-        <v>46015</v>
+        <v>46029</v>
       </c>
       <c r="F19" s="12">
         <f t="shared" ref="F19:F20" ca="1" si="4">E19-D19</f>
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="G19" s="15">
         <v>15</v>
       </c>
       <c r="H19" s="14">
         <f ca="1">G19/F19</f>
-        <v>0.10948905109489052</v>
+        <v>9.9337748344370855E-2</v>
       </c>
       <c r="J19" s="15" t="s">
         <v>30</v>
@@ -1571,7 +1571,7 @@
       </c>
       <c r="I21" s="17">
         <f ca="1">E21-TODAY()</f>
-        <v>-105</v>
+        <v>-119</v>
       </c>
       <c r="J21" s="23" t="s">
         <v>23</v>
@@ -1606,7 +1606,7 @@
       </c>
       <c r="I22" s="17">
         <f ca="1">E22-TODAY()</f>
-        <v>-105</v>
+        <v>-119</v>
       </c>
       <c r="J22" s="23" t="s">
         <v>23</v>
@@ -1661,18 +1661,18 @@
       </c>
       <c r="E24" s="20">
         <f ca="1">TODAY()</f>
-        <v>46015</v>
+        <v>46029</v>
       </c>
       <c r="F24" s="19">
         <f ca="1">E24-D24</f>
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="G24" s="19">
         <v>3</v>
       </c>
       <c r="H24" s="14">
         <f ca="1">G24/F24</f>
-        <v>2.7027027027027029E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="J24" s="19" t="s">
         <v>29</v>
@@ -1693,7 +1693,7 @@
       </c>
       <c r="E25" s="20">
         <f ca="1">TODAY()</f>
-        <v>46015</v>
+        <v>46029</v>
       </c>
       <c r="F25" s="19">
         <v>6</v>
@@ -1724,18 +1724,18 @@
       </c>
       <c r="E26" s="20">
         <f ca="1">TODAY()</f>
-        <v>46015</v>
+        <v>46029</v>
       </c>
       <c r="F26" s="19">
         <f ca="1">E26-D26</f>
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="G26" s="19">
         <v>3</v>
       </c>
       <c r="H26" s="14">
         <f t="shared" ca="1" si="7"/>
-        <v>2.7027027027027029E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="J26" s="19" t="s">
         <v>29</v>
@@ -1756,18 +1756,18 @@
       </c>
       <c r="E27" s="20">
         <f ca="1">TODAY()</f>
-        <v>46015</v>
+        <v>46029</v>
       </c>
       <c r="F27" s="19">
         <f ca="1">E27-D27</f>
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="G27" s="19">
         <v>3</v>
       </c>
       <c r="H27" s="14">
         <f t="shared" ref="H27" ca="1" si="8">G27/F27</f>
-        <v>2.7027027027027029E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="J27" s="19" t="s">
         <v>34</v>
@@ -2108,14 +2108,14 @@
       </c>
       <c r="D41" s="37">
         <f ca="1">TODAY()</f>
-        <v>46015</v>
+        <v>46029</v>
       </c>
       <c r="E41" s="37">
         <v>45910</v>
       </c>
       <c r="F41" s="28">
         <f ca="1">D41-E41</f>
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="G41" s="38" t="s">
         <v>54</v>
@@ -2140,14 +2140,14 @@
       </c>
       <c r="D42" s="18">
         <f ca="1">TODAY()</f>
-        <v>46015</v>
+        <v>46029</v>
       </c>
       <c r="E42" s="18">
         <v>45947</v>
       </c>
       <c r="F42" s="17">
         <f ca="1">D42-E42</f>
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="G42" s="23" t="s">
         <v>54</v>
@@ -2172,14 +2172,14 @@
       </c>
       <c r="D43" s="18">
         <f ca="1">TODAY()</f>
-        <v>46015</v>
+        <v>46029</v>
       </c>
       <c r="E43" s="18">
         <v>45953</v>
       </c>
       <c r="F43" s="17">
-        <f ca="1">E43-D43</f>
-        <v>-62</v>
+        <f t="shared" ref="F43:F44" ca="1" si="9">D43-E43</f>
+        <v>76</v>
       </c>
       <c r="G43" s="23" t="s">
         <v>54</v>
@@ -2204,14 +2204,14 @@
       </c>
       <c r="D44" s="18">
         <f ca="1">TODAY()</f>
-        <v>46015</v>
+        <v>46029</v>
       </c>
       <c r="E44" s="18">
         <v>45956</v>
       </c>
       <c r="F44" s="17">
-        <f ca="1">E44-D44</f>
-        <v>-59</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>73</v>
       </c>
       <c r="G44" s="23" t="s">
         <v>54</v>
@@ -2270,18 +2270,18 @@
       </c>
       <c r="E46" s="20">
         <f ca="1">TODAY()</f>
-        <v>46015</v>
+        <v>46029</v>
       </c>
       <c r="F46" s="19">
         <f ca="1">E46-D46</f>
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="G46" s="19" t="s">
         <v>71</v>
       </c>
       <c r="H46" s="55">
         <f ca="1">F46*2</f>
-        <v>412</v>
+        <v>440</v>
       </c>
       <c r="I46" s="19">
         <v>1</v>
@@ -2304,19 +2304,19 @@
         <v>45943</v>
       </c>
       <c r="E47" s="20">
-        <f t="shared" ref="E47:E48" ca="1" si="9">TODAY()</f>
-        <v>46015</v>
+        <f t="shared" ref="E47:E48" ca="1" si="10">TODAY()</f>
+        <v>46029</v>
       </c>
       <c r="F47" s="19">
-        <f t="shared" ref="F47:F48" ca="1" si="10">E47-D47</f>
-        <v>72</v>
+        <f t="shared" ref="F47:F48" ca="1" si="11">E47-D47</f>
+        <v>86</v>
       </c>
       <c r="G47" s="19" t="s">
         <v>71</v>
       </c>
       <c r="H47" s="55">
-        <f t="shared" ref="H47:H48" ca="1" si="11">F47*2</f>
-        <v>144</v>
+        <f t="shared" ref="H47:H48" ca="1" si="12">F47*2</f>
+        <v>172</v>
       </c>
       <c r="I47" s="19">
         <v>1</v>
@@ -2339,19 +2339,19 @@
         <v>45961</v>
       </c>
       <c r="E48" s="20">
-        <f t="shared" ca="1" si="9"/>
-        <v>46015</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>46029</v>
       </c>
       <c r="F48" s="19">
-        <f t="shared" ca="1" si="10"/>
-        <v>54</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>68</v>
       </c>
       <c r="G48" s="19" t="s">
         <v>71</v>
       </c>
       <c r="H48" s="55">
-        <f t="shared" ca="1" si="11"/>
-        <v>108</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>136</v>
       </c>
       <c r="I48" s="19">
         <v>1</v>
@@ -2391,20 +2391,55 @@
         <v>46005</v>
       </c>
       <c r="E50" s="16">
-        <v>46026</v>
+        <v>46027</v>
       </c>
       <c r="F50" s="15">
         <f>E50-D50</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G50" s="15">
         <v>10</v>
       </c>
       <c r="H50" s="33">
         <f>I50/G50</f>
-        <v>0</v>
+        <v>0.7</v>
+      </c>
+      <c r="I50" s="15">
+        <v>7</v>
       </c>
       <c r="J50" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51" s="18">
+        <f ca="1">TODAY()</f>
+        <v>46029</v>
+      </c>
+      <c r="E51" s="18">
+        <v>46027</v>
+      </c>
+      <c r="F51" s="17">
+        <f ca="1">D51-E51</f>
+        <v>2</v>
+      </c>
+      <c r="G51" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="H51" s="29"/>
+      <c r="I51" s="17">
+        <v>4</v>
+      </c>
+      <c r="J51" s="17" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2534,9 +2569,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B0995D-FE85-4EC0-91CA-7B21E8F79AC2}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8:XFD8"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2558,13 +2593,13 @@
       </c>
       <c r="C1" s="46">
         <f ca="1">TODAY()</f>
-        <v>46015</v>
+        <v>46029</v>
       </c>
       <c r="E1" s="46"/>
       <c r="F1" s="46"/>
       <c r="G1" s="49">
         <f>SUM(I:I)</f>
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H1" s="49" t="s">
         <v>68</v>
@@ -2614,14 +2649,14 @@
       </c>
       <c r="E3" s="18">
         <f ca="1">TODAY()</f>
-        <v>46015</v>
+        <v>46029</v>
       </c>
       <c r="F3" s="18">
         <v>45947</v>
       </c>
       <c r="G3" s="17">
         <f ca="1">E3-F3</f>
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="H3" s="17" t="s">
         <v>54</v>
@@ -2645,14 +2680,14 @@
       </c>
       <c r="E4" s="18">
         <f ca="1">TODAY()</f>
-        <v>46015</v>
+        <v>46029</v>
       </c>
       <c r="F4" s="18">
         <v>45953</v>
       </c>
       <c r="G4" s="17">
         <f ca="1">E4-F4</f>
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="H4" s="17" t="s">
         <v>54</v>
@@ -2676,20 +2711,51 @@
       </c>
       <c r="E5" s="18">
         <f ca="1">TODAY()</f>
-        <v>46015</v>
+        <v>46029</v>
       </c>
       <c r="F5" s="18">
         <v>45956</v>
       </c>
       <c r="G5" s="17">
         <f ca="1">E5-F5</f>
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="H5" s="17" t="s">
         <v>54</v>
       </c>
       <c r="I5" s="17">
         <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="18">
+        <f ca="1">TODAY()</f>
+        <v>46029</v>
+      </c>
+      <c r="F6" s="18">
+        <v>46027</v>
+      </c>
+      <c r="G6" s="17">
+        <f ca="1">E6-F6</f>
+        <v>2</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="17">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
@@ -2720,7 +2786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C21D6C99-536E-4F31-8A16-5ECA51AF8689}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
@@ -2746,7 +2812,7 @@
       </c>
       <c r="C1" s="46">
         <f ca="1">TODAY()</f>
-        <v>46015</v>
+        <v>46029</v>
       </c>
       <c r="E1" s="46"/>
       <c r="F1" s="46"/>
@@ -3010,11 +3076,11 @@
       </c>
       <c r="E2" s="20">
         <f ca="1">TODAY()</f>
-        <v>46015</v>
+        <v>46029</v>
       </c>
       <c r="F2" s="19">
         <f ca="1">E2-D2</f>
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>71</v>
@@ -3042,11 +3108,11 @@
       </c>
       <c r="E3" s="20">
         <f ca="1">TODAY()</f>
-        <v>46015</v>
+        <v>46029</v>
       </c>
       <c r="F3" s="19">
         <f ca="1">E3-D3</f>
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>71</v>

--- a/Galinhas/Galinhas 2025 novo.xlsx
+++ b/Galinhas/Galinhas 2025 novo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BichosDeCasa\Galinhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D66DF6D-B8D3-4EC9-90A9-10A731D00C1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE479B0-160C-422A-ABCD-EA13A3B30EAB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="3840" activeTab="1" xr2:uid="{0FF26368-0124-41AC-ABBE-7DCA2B31386A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="80">
   <si>
     <t>HOJE</t>
   </si>
@@ -977,8 +977,8 @@
   <dimension ref="A1:J58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A51" sqref="A51:XFD51"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A49" sqref="A49:XFD49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="C1" s="40">
         <f ca="1">TODAY()</f>
-        <v>46029</v>
+        <v>46036</v>
       </c>
       <c r="D1" s="41">
         <f>SUM(I32:I43)</f>
@@ -1279,11 +1279,11 @@
       </c>
       <c r="E11" s="16">
         <f ca="1">TODAY()</f>
-        <v>46029</v>
+        <v>46036</v>
       </c>
       <c r="F11" s="15">
         <f t="shared" ref="F11:F18" ca="1" si="3">E11-D11</f>
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="H11" s="14">
         <f t="shared" ca="1" si="1"/>
@@ -1386,18 +1386,18 @@
       </c>
       <c r="E15" s="18">
         <f ca="1">TODAY()</f>
-        <v>46029</v>
+        <v>46036</v>
       </c>
       <c r="F15" s="17">
         <f t="shared" ca="1" si="3"/>
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="G15" s="17">
         <v>14</v>
       </c>
       <c r="H15" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>6.3063063063063057E-2</v>
+        <v>6.1135371179039298E-2</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -1497,18 +1497,18 @@
       </c>
       <c r="E19" s="16">
         <f ca="1">TODAY()</f>
-        <v>46029</v>
+        <v>46036</v>
       </c>
       <c r="F19" s="12">
         <f t="shared" ref="F19:F20" ca="1" si="4">E19-D19</f>
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="G19" s="15">
         <v>15</v>
       </c>
       <c r="H19" s="14">
         <f ca="1">G19/F19</f>
-        <v>9.9337748344370855E-2</v>
+        <v>9.49367088607595E-2</v>
       </c>
       <c r="J19" s="15" t="s">
         <v>30</v>
@@ -1571,7 +1571,7 @@
       </c>
       <c r="I21" s="17">
         <f ca="1">E21-TODAY()</f>
-        <v>-119</v>
+        <v>-126</v>
       </c>
       <c r="J21" s="23" t="s">
         <v>23</v>
@@ -1606,7 +1606,7 @@
       </c>
       <c r="I22" s="17">
         <f ca="1">E22-TODAY()</f>
-        <v>-119</v>
+        <v>-126</v>
       </c>
       <c r="J22" s="23" t="s">
         <v>23</v>
@@ -1661,18 +1661,18 @@
       </c>
       <c r="E24" s="20">
         <f ca="1">TODAY()</f>
-        <v>46029</v>
+        <v>46036</v>
       </c>
       <c r="F24" s="19">
         <f ca="1">E24-D24</f>
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="G24" s="19">
         <v>3</v>
       </c>
       <c r="H24" s="14">
         <f ca="1">G24/F24</f>
-        <v>2.4E-2</v>
+        <v>2.2727272727272728E-2</v>
       </c>
       <c r="J24" s="19" t="s">
         <v>29</v>
@@ -1693,7 +1693,7 @@
       </c>
       <c r="E25" s="20">
         <f ca="1">TODAY()</f>
-        <v>46029</v>
+        <v>46036</v>
       </c>
       <c r="F25" s="19">
         <v>6</v>
@@ -1724,18 +1724,18 @@
       </c>
       <c r="E26" s="20">
         <f ca="1">TODAY()</f>
-        <v>46029</v>
+        <v>46036</v>
       </c>
       <c r="F26" s="19">
         <f ca="1">E26-D26</f>
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="G26" s="19">
         <v>3</v>
       </c>
       <c r="H26" s="14">
         <f t="shared" ca="1" si="7"/>
-        <v>2.4E-2</v>
+        <v>2.2727272727272728E-2</v>
       </c>
       <c r="J26" s="19" t="s">
         <v>29</v>
@@ -1756,18 +1756,18 @@
       </c>
       <c r="E27" s="20">
         <f ca="1">TODAY()</f>
-        <v>46029</v>
+        <v>46036</v>
       </c>
       <c r="F27" s="19">
         <f ca="1">E27-D27</f>
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="G27" s="19">
         <v>3</v>
       </c>
       <c r="H27" s="14">
         <f t="shared" ref="H27" ca="1" si="8">G27/F27</f>
-        <v>2.4E-2</v>
+        <v>2.2727272727272728E-2</v>
       </c>
       <c r="J27" s="19" t="s">
         <v>34</v>
@@ -2108,14 +2108,14 @@
       </c>
       <c r="D41" s="37">
         <f ca="1">TODAY()</f>
-        <v>46029</v>
+        <v>46036</v>
       </c>
       <c r="E41" s="37">
         <v>45910</v>
       </c>
       <c r="F41" s="28">
         <f ca="1">D41-E41</f>
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="G41" s="38" t="s">
         <v>54</v>
@@ -2140,14 +2140,14 @@
       </c>
       <c r="D42" s="18">
         <f ca="1">TODAY()</f>
-        <v>46029</v>
+        <v>46036</v>
       </c>
       <c r="E42" s="18">
         <v>45947</v>
       </c>
       <c r="F42" s="17">
         <f ca="1">D42-E42</f>
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G42" s="23" t="s">
         <v>54</v>
@@ -2172,14 +2172,14 @@
       </c>
       <c r="D43" s="18">
         <f ca="1">TODAY()</f>
-        <v>46029</v>
+        <v>46036</v>
       </c>
       <c r="E43" s="18">
         <v>45953</v>
       </c>
       <c r="F43" s="17">
         <f t="shared" ref="F43:F44" ca="1" si="9">D43-E43</f>
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G43" s="23" t="s">
         <v>54</v>
@@ -2204,14 +2204,14 @@
       </c>
       <c r="D44" s="18">
         <f ca="1">TODAY()</f>
-        <v>46029</v>
+        <v>46036</v>
       </c>
       <c r="E44" s="18">
         <v>45956</v>
       </c>
       <c r="F44" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G44" s="23" t="s">
         <v>54</v>
@@ -2270,18 +2270,18 @@
       </c>
       <c r="E46" s="20">
         <f ca="1">TODAY()</f>
-        <v>46029</v>
+        <v>46036</v>
       </c>
       <c r="F46" s="19">
         <f ca="1">E46-D46</f>
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="G46" s="19" t="s">
         <v>71</v>
       </c>
       <c r="H46" s="55">
         <f ca="1">F46*2</f>
-        <v>440</v>
+        <v>454</v>
       </c>
       <c r="I46" s="19">
         <v>1</v>
@@ -2305,18 +2305,18 @@
       </c>
       <c r="E47" s="20">
         <f t="shared" ref="E47:E48" ca="1" si="10">TODAY()</f>
-        <v>46029</v>
+        <v>46036</v>
       </c>
       <c r="F47" s="19">
         <f t="shared" ref="F47:F48" ca="1" si="11">E47-D47</f>
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G47" s="19" t="s">
         <v>71</v>
       </c>
       <c r="H47" s="55">
         <f t="shared" ref="H47:H48" ca="1" si="12">F47*2</f>
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="I47" s="19">
         <v>1</v>
@@ -2340,18 +2340,18 @@
       </c>
       <c r="E48" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>46029</v>
+        <v>46036</v>
       </c>
       <c r="F48" s="19">
         <f t="shared" ca="1" si="11"/>
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="G48" s="19" t="s">
         <v>71</v>
       </c>
       <c r="H48" s="55">
         <f t="shared" ca="1" si="12"/>
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="I48" s="19">
         <v>1</v>
@@ -2423,14 +2423,14 @@
       </c>
       <c r="D51" s="18">
         <f ca="1">TODAY()</f>
-        <v>46029</v>
+        <v>46036</v>
       </c>
       <c r="E51" s="18">
         <v>46027</v>
       </c>
       <c r="F51" s="17">
         <f ca="1">D51-E51</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G51" s="23" t="s">
         <v>54</v>
@@ -2567,11 +2567,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B0995D-FE85-4EC0-91CA-7B21E8F79AC2}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2593,13 +2593,13 @@
       </c>
       <c r="C1" s="46">
         <f ca="1">TODAY()</f>
-        <v>46029</v>
+        <v>46036</v>
       </c>
       <c r="E1" s="46"/>
       <c r="F1" s="46"/>
       <c r="G1" s="49">
         <f>SUM(I:I)</f>
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="H1" s="49" t="s">
         <v>68</v>
@@ -2649,14 +2649,14 @@
       </c>
       <c r="E3" s="18">
         <f ca="1">TODAY()</f>
-        <v>46029</v>
+        <v>46036</v>
       </c>
       <c r="F3" s="18">
         <v>45947</v>
       </c>
       <c r="G3" s="17">
         <f ca="1">E3-F3</f>
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H3" s="17" t="s">
         <v>54</v>
@@ -2680,14 +2680,14 @@
       </c>
       <c r="E4" s="18">
         <f ca="1">TODAY()</f>
-        <v>46029</v>
+        <v>46036</v>
       </c>
       <c r="F4" s="18">
         <v>45953</v>
       </c>
       <c r="G4" s="17">
         <f ca="1">E4-F4</f>
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H4" s="17" t="s">
         <v>54</v>
@@ -2711,14 +2711,14 @@
       </c>
       <c r="E5" s="18">
         <f ca="1">TODAY()</f>
-        <v>46029</v>
+        <v>46036</v>
       </c>
       <c r="F5" s="18">
         <v>45956</v>
       </c>
       <c r="G5" s="17">
         <f ca="1">E5-F5</f>
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H5" s="17" t="s">
         <v>54</v>
@@ -2742,14 +2742,14 @@
       </c>
       <c r="E6" s="18">
         <f ca="1">TODAY()</f>
-        <v>46029</v>
+        <v>46036</v>
       </c>
       <c r="F6" s="18">
         <v>46027</v>
       </c>
       <c r="G6" s="17">
         <f ca="1">E6-F6</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H6" s="23" t="s">
         <v>54</v>
@@ -2758,23 +2758,59 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+    <row r="7" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="18">
+        <f ca="1">TODAY()</f>
+        <v>46036</v>
+      </c>
+      <c r="F7" s="18">
+        <v>46036</v>
+      </c>
+      <c r="G7" s="17">
+        <f ca="1">F7-E7</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="I8" s="33"/>
+    </row>
+    <row r="9" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B9" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C9" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D9" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="31">
+      <c r="E9" s="31">
         <v>45997</v>
       </c>
-      <c r="H8" s="32"/>
+      <c r="H9" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -2788,7 +2824,7 @@
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2812,7 +2848,7 @@
       </c>
       <c r="C1" s="46">
         <f ca="1">TODAY()</f>
-        <v>46029</v>
+        <v>46036</v>
       </c>
       <c r="E1" s="46"/>
       <c r="F1" s="46"/>
@@ -2980,7 +3016,10 @@
       </c>
       <c r="I8" s="33">
         <f>J8/H8</f>
-        <v>0</v>
+        <v>0.9</v>
+      </c>
+      <c r="J8" s="15">
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.25">
@@ -3076,11 +3115,11 @@
       </c>
       <c r="E2" s="20">
         <f ca="1">TODAY()</f>
-        <v>46029</v>
+        <v>46036</v>
       </c>
       <c r="F2" s="19">
         <f ca="1">E2-D2</f>
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>71</v>
@@ -3108,11 +3147,11 @@
       </c>
       <c r="E3" s="20">
         <f ca="1">TODAY()</f>
-        <v>46029</v>
+        <v>46036</v>
       </c>
       <c r="F3" s="19">
         <f ca="1">E3-D3</f>
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>71</v>
